--- a/Doubles training.xlsx
+++ b/Doubles training.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,6 +1046,168 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>246077</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-07-21T15:19:19.000000Z</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>21</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="n">
+        <v>15</v>
+      </c>
+      <c r="U8" t="n">
+        <v>14</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>248429</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023-07-28T18:38:43.000000Z</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>17</v>
+      </c>
+      <c r="L9" t="n">
+        <v>13</v>
+      </c>
+      <c r="M9" t="n">
+        <v>17</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>23</v>
+      </c>
+      <c r="V9" t="n">
+        <v>19</v>
+      </c>
+      <c r="W9" t="n">
+        <v>22</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Doubles training.xlsx
+++ b/Doubles training.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,6 +1208,573 @@
         <v>5</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>257203</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2023-08-28T13:50:39.000000Z</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>59</v>
+      </c>
+      <c r="O10" t="n">
+        <v>19</v>
+      </c>
+      <c r="P10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>18</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>17</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>258431</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023-09-01T17:26:31.000000Z</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>27</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>260371</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2023-09-10T17:12:59.000000Z</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>24</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>21</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7</v>
+      </c>
+      <c r="U12" t="n">
+        <v>16</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>270868</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2023-10-17T12:15:12.000000Z</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>17</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>24</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>19</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>30</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>283345</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023-11-20T13:10:18.000000Z</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>14</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>34</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
+        <v>8</v>
+      </c>
+      <c r="U14" t="n">
+        <v>19</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6</v>
+      </c>
+      <c r="W14" t="n">
+        <v>30</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>294845</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2023-12-21T13:29:23.000000Z</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>24</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>61</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>9</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>15</v>
+      </c>
+      <c r="U15" t="n">
+        <v>33</v>
+      </c>
+      <c r="V15" t="n">
+        <v>12</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>303278</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-01-01T12:21:40.000000Z</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>18</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>13</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>18</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
